--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
     <sheet name="Смешанные стратегии" sheetId="2" r:id="rId2"/>
     <sheet name="Редукция" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -507,10 +508,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-73</v>
+      </c>
+      <c r="B1">
+        <v>-54</v>
+      </c>
+      <c r="C1">
+        <v>-56</v>
+      </c>
+      <c r="D1">
+        <v>-35</v>
+      </c>
+      <c r="E1">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-37</v>
+      </c>
+      <c r="B2">
+        <v>-70</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>-22</v>
+      </c>
+      <c r="E2">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-37</v>
+      </c>
+      <c r="B3">
+        <v>-44</v>
+      </c>
+      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>-73</v>
+      </c>
+      <c r="E3">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-66</v>
+      </c>
+      <c r="B4">
+        <v>-72</v>
+      </c>
+      <c r="C4">
+        <v>-63</v>
+      </c>
+      <c r="D4">
+        <v>-25</v>
+      </c>
+      <c r="E4">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-37</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-58</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>-56</v>
+      </c>
+      <c r="D6">
+        <v>-29</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>-65</v>
+      </c>
+      <c r="C7">
+        <v>-50</v>
+      </c>
+      <c r="D7">
+        <v>-62</v>
+      </c>
+      <c r="E7">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>-27</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
     <sheet name="Смешанные стратегии" sheetId="2" r:id="rId2"/>
     <sheet name="Редукция" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="2X2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -361,54 +361,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>-8</v>
+      </c>
+      <c r="C1">
+        <v>-7</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-4</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -421,53 +464,51 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C1">
         <v>-7</v>
       </c>
+      <c r="D1">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>-6</v>
+      </c>
+      <c r="D2">
+        <v>-7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="B3">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-4</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>-5</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,16 +516,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.36364000000000002</v>
       </c>
       <c r="D5">
-        <v>0.375</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>0.63636000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,13 +530,16 @@
         <v>1</v>
       </c>
       <c r="B6">
+        <v>0.54544999999999999</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0.8125</v>
-      </c>
       <c r="D6">
-        <v>0.1875</v>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.45455000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -508,148 +549,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-73</v>
+        <v>-58</v>
       </c>
       <c r="B1">
-        <v>-54</v>
+        <v>-17</v>
       </c>
       <c r="C1">
-        <v>-56</v>
+        <v>-44</v>
       </c>
       <c r="D1">
-        <v>-35</v>
+        <v>-31</v>
       </c>
       <c r="E1">
-        <v>-64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-37</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>-70</v>
+        <v>-12</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>-42</v>
       </c>
       <c r="D2">
-        <v>-22</v>
+        <v>-53</v>
       </c>
       <c r="E2">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-32</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-37</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>-44</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>-42</v>
       </c>
       <c r="D3">
-        <v>-73</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-66</v>
+        <v>-49</v>
       </c>
       <c r="B4">
         <v>-72</v>
       </c>
       <c r="C4">
-        <v>-63</v>
+        <v>27</v>
       </c>
       <c r="D4">
+        <v>-13</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-14</v>
+      </c>
+      <c r="C5">
+        <v>-48</v>
+      </c>
+      <c r="D5">
+        <v>-10</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
         <v>-25</v>
       </c>
-      <c r="E4">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-37</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-58</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>-56</v>
-      </c>
-      <c r="D6">
-        <v>-29</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-6</v>
-      </c>
-      <c r="B7">
-        <v>-65</v>
-      </c>
-      <c r="C7">
-        <v>-50</v>
-      </c>
-      <c r="D7">
-        <v>-62</v>
-      </c>
-      <c r="E7">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-3</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>-27</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
+      <c r="G5">
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
@@ -659,127 +679,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-58</v>
+        <v>17</v>
       </c>
       <c r="B1">
-        <v>-17</v>
-      </c>
-      <c r="C1">
-        <v>-44</v>
-      </c>
-      <c r="D1">
-        <v>-31</v>
-      </c>
-      <c r="E1">
-        <v>17</v>
-      </c>
-      <c r="F1">
-        <v>16</v>
-      </c>
-      <c r="G1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-12</v>
-      </c>
-      <c r="C2">
-        <v>-42</v>
-      </c>
-      <c r="D2">
-        <v>-53</v>
-      </c>
-      <c r="E2">
-        <v>-32</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>-42</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-49</v>
-      </c>
-      <c r="B4">
-        <v>-72</v>
-      </c>
-      <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>-13</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>-14</v>
-      </c>
-      <c r="C5">
-        <v>-48</v>
-      </c>
-      <c r="D5">
-        <v>-10</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>-25</v>
-      </c>
-      <c r="G5">
-        <v>-18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
     <sheet name="Смешанные стратегии" sheetId="2" r:id="rId2"/>
     <sheet name="Редукция" sheetId="3" r:id="rId3"/>
     <sheet name="2X2" sheetId="4" r:id="rId4"/>
+    <sheet name="2XN" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -549,127 +550,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-58</v>
+        <v>9</v>
       </c>
       <c r="B1">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="C1">
+        <v>37</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-67</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
         <v>-44</v>
       </c>
-      <c r="D1">
-        <v>-31</v>
-      </c>
-      <c r="E1">
-        <v>17</v>
-      </c>
-      <c r="F1">
-        <v>16</v>
-      </c>
-      <c r="G1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>-12</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>-42</v>
       </c>
-      <c r="D2">
-        <v>-53</v>
-      </c>
       <c r="E2">
-        <v>-32</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>36</v>
+        <v>-6</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>-41</v>
       </c>
       <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>-69</v>
+      </c>
+      <c r="E3">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-38</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>-11</v>
+      </c>
+      <c r="D4">
+        <v>-46</v>
+      </c>
+      <c r="E4">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
         <v>-42</v>
       </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-49</v>
-      </c>
-      <c r="B4">
-        <v>-72</v>
-      </c>
-      <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>-13</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>-14</v>
-      </c>
-      <c r="C5">
-        <v>-48</v>
-      </c>
-      <c r="D5">
-        <v>-10</v>
-      </c>
       <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>-25</v>
-      </c>
-      <c r="G5">
-        <v>-18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -709,4 +680,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>26</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>-12</v>
+      </c>
+      <c r="F1">
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-19</v>
+      </c>
+      <c r="B2">
+        <v>-11</v>
+      </c>
+      <c r="C2">
+        <v>-15</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Редукция" sheetId="3" r:id="rId3"/>
     <sheet name="2X2" sheetId="4" r:id="rId4"/>
     <sheet name="2XN" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -687,7 +688,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,4 +742,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-6</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
     <sheet name="Смешанные стратегии" sheetId="2" r:id="rId2"/>
     <sheet name="Редукция" sheetId="3" r:id="rId3"/>
     <sheet name="2X2" sheetId="4" r:id="rId4"/>
-    <sheet name="2XN" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
+    <sheet name="2XN или Nx2" sheetId="5" r:id="rId5"/>
+    <sheet name="Статистические игры" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -554,7 +555,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,67 +747,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:B11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>-20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="B7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-6</v>
-      </c>
-      <c r="B11">
         <v>20</v>
       </c>
     </row>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
@@ -688,56 +688,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="B1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1">
-        <v>26</v>
+        <v>-9</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="F1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-19</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>-6</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>-10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -784,15 +784,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>28</v>
       </c>
@@ -800,7 +800,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -808,7 +808,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
@@ -832,7 +832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -840,12 +840,98 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-6</v>
       </c>
       <c r="B7">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>-17</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>-12</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-19</v>
+      </c>
+      <c r="B20">
+        <v>-11</v>
+      </c>
+      <c r="C20">
+        <v>-15</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>p=</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,58 +686,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-14</v>
+        <v>28</v>
       </c>
       <c r="B1">
-        <v>23</v>
-      </c>
-      <c r="C1">
-        <v>-9</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>24</v>
-      </c>
-      <c r="F1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>22</v>
       </c>
-      <c r="G1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>25</v>
-      </c>
       <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>-6</v>
       </c>
-      <c r="E2">
-        <v>-2</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
+      <c r="B7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -747,15 +757,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -766,7 +776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-15</v>
       </c>
@@ -775,6 +785,20 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.52</v>
+      </c>
+      <c r="D4">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>p=</t>
   </si>
@@ -757,10 +757,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +775,9 @@
       <c r="C1">
         <v>-1</v>
       </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -786,19 +789,22 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.52</v>
-      </c>
-      <c r="D4">
-        <v>0.34</v>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>-7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -760,51 +760,51 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D1">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,74 @@
     <sheet name="2X2" sheetId="4" r:id="rId4"/>
     <sheet name="2XN или Nx2" sheetId="5" r:id="rId5"/>
     <sheet name="Статистические игры" sheetId="6" r:id="rId6"/>
-    <sheet name="Лист1" sheetId="7" r:id="rId7"/>
+    <sheet name="НО Прямой Вывод" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>p=</t>
   </si>
   <si>
     <t>q=</t>
+  </si>
+  <si>
+    <t>X=</t>
+  </si>
+  <si>
+    <t>Y=</t>
+  </si>
+  <si>
+    <t>Z=</t>
+  </si>
+  <si>
+    <t>Mz=</t>
+  </si>
+  <si>
+    <t>Mr=</t>
+  </si>
+  <si>
+    <t>плавание</t>
+  </si>
+  <si>
+    <t>гибкость</t>
+  </si>
+  <si>
+    <t>Маша</t>
+  </si>
+  <si>
+    <t>Оля</t>
+  </si>
+  <si>
+    <t>художественная гимнастика</t>
+  </si>
+  <si>
+    <t>спортивная гимнастика</t>
+  </si>
+  <si>
+    <t>легкая атлетика</t>
+  </si>
+  <si>
+    <t>пластичность</t>
+  </si>
+  <si>
+    <t>смелость</t>
+  </si>
+  <si>
+    <t>физическая выносливость</t>
+  </si>
+  <si>
+    <t>координация движений</t>
+  </si>
+  <si>
+    <t>Коля</t>
+  </si>
+  <si>
+    <t>Дима</t>
   </si>
 </sst>
 </file>
@@ -759,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -814,10 +869,230 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="2XN или Nx2" sheetId="5" r:id="rId5"/>
     <sheet name="Статистические игры" sheetId="6" r:id="rId6"/>
     <sheet name="НО Прямой Вывод" sheetId="7" r:id="rId7"/>
-    <sheet name="Лист1" sheetId="8" r:id="rId8"/>
+    <sheet name="НО Обратный Вывод" sheetId="9" r:id="rId8"/>
+    <sheet name="Лист1" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>p=</t>
   </si>
@@ -81,6 +82,21 @@
   </si>
   <si>
     <t>Дима</t>
+  </si>
+  <si>
+    <t>коррозия трубы</t>
+  </si>
+  <si>
+    <t>разрыв трубы</t>
+  </si>
+  <si>
+    <t>утечка воды</t>
+  </si>
+  <si>
+    <t>парение</t>
+  </si>
+  <si>
+    <t>провал земли</t>
   </si>
 </sst>
 </file>
@@ -871,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="A10:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1105,76 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>p=</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>провал земли</t>
+  </si>
+  <si>
+    <t>разрыв по сварке</t>
+  </si>
+  <si>
+    <t>b=</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A10:E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,17 +1111,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,6 +1134,9 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1145,27 +1154,52 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>0.6</v>
       </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/main/resources/data.xlsx
+++ b/core/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Чистые стратегии" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
